--- a/V.xlsx
+++ b/V.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3744E3AE-BA21-43D7-87C0-DC3AF42095A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BFD01-A717-4052-89BB-90384A75D183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A5987127-2008-4A5B-9B52-8C4305414700}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A5987127-2008-4A5B-9B52-8C4305414700}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -260,7 +260,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,11 +269,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -613,7 +611,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>333.79</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -655,7 +653,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>620107.49130901007</v>
+        <v>622169.62413309992</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -688,7 +686,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>623270.49130901007</v>
+        <v>625332.62413309992</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +702,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,112 +862,112 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
     </row>
-    <row r="5" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <f>+C3+C4</f>
         <v>1725</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <f>+G3+G4</f>
         <v>1809</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-    </row>
-    <row r="6" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>57472</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>63797</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-    </row>
-    <row r="7" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="7">
@@ -1004,40 +1002,40 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
@@ -2470,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" ref="C34:G34" si="13">+C16/C14</f>
+        <f t="shared" ref="C34:F34" si="13">+C16/C14</f>
         <v>0.9790363678480426</v>
       </c>
       <c r="D34" s="7" t="e">
@@ -2541,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:G35" si="14">+C23/C14</f>
+        <f t="shared" ref="C35:F35" si="14">+C23/C14</f>
         <v>0.68959925874449846</v>
       </c>
       <c r="D35" s="7" t="e">
@@ -2612,7 +2610,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="7">
-        <f t="shared" ref="C36:G36" si="16">+C27/C26</f>
+        <f t="shared" ref="C36:F36" si="16">+C27/C26</f>
         <v>0.1906653426017875</v>
       </c>
       <c r="D36" s="7" t="e">
